--- a/BC1/data/BankClients_Metadata.xlsx
+++ b/BC1/data/BankClients_Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaelezenti/virtualb Dropbox/VirtualB Finance/RaffaeleZenti/Politecnico_Corsi/Laboratorio_Machine_Learning/Corso_2025/Dati/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DCC29C-CA4F-1B4B-B3C2-32F33136D934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D652EA0A-860F-3442-8CF8-62A585D603A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="1940" windowWidth="19500" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="6260" windowWidth="19500" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -133,13 +133,13 @@
 5 = Retired</t>
   </si>
   <si>
-    <t>1 = Small town</t>
-  </si>
-  <si>
-    <t>2 = Medium-sized city</t>
-  </si>
-  <si>
-    <t>3 = Large city (&gt;200k population)</t>
+    <t>1 = Small town, 2 = Medium-sized city, 3 = Large city (&gt;200k population)</t>
+  </si>
+  <si>
+    <t>Number of components</t>
+  </si>
+  <si>
+    <t>Normalized Income (percentiles)</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="224" zoomScaleNormal="224" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -552,7 +552,7 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -560,7 +560,7 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
